--- a/results/tables/richness_summary.xlsx
+++ b/results/tables/richness_summary.xlsx
@@ -452,13 +452,13 @@
         <v>0.86</v>
       </c>
       <c r="J2">
-        <v>-0.65</v>
+        <v>-0.63</v>
       </c>
       <c r="K2">
-        <v>-0.73</v>
+        <v>-0.72</v>
       </c>
       <c r="L2">
-        <v>-0.5</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>7</v>
       </c>
       <c r="J3">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="K3">
-        <v>-0.35</v>
+        <v>-0.32</v>
       </c>
       <c r="L3">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4">
@@ -521,7 +521,7 @@
         <v>0.33</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4">
         <v>0.66</v>
@@ -554,7 +554,7 @@
         <v>0.14</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I5">
         <v>0.41</v>
@@ -596,10 +596,10 @@
         <v>0.33</v>
       </c>
       <c r="K6">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="L6">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>4</v>
       </c>
       <c r="J7">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="K7">
-        <v>-1.48</v>
+        <v>-1.52</v>
       </c>
       <c r="L7">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>0.08</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I8">
         <v>0.15</v>
@@ -695,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -728,7 +728,7 @@
         <v>0.26</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I10">
         <v>0.51</v>
@@ -761,7 +761,7 @@
         <v>0.17</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I11">
         <v>0.51</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14">
@@ -866,13 +866,13 @@
         <v>0.76</v>
       </c>
       <c r="J14">
-        <v>-5.93</v>
+        <v>-5.95</v>
       </c>
       <c r="K14">
-        <v>-7.21</v>
+        <v>-7.45</v>
       </c>
       <c r="L14">
-        <v>-4.74</v>
+        <v>-4.69</v>
       </c>
     </row>
     <row r="15">
@@ -908,13 +908,13 @@
         <v>0.77</v>
       </c>
       <c r="J15">
-        <v>-4.26</v>
+        <v>-4.13</v>
       </c>
       <c r="K15">
-        <v>-6.08</v>
+        <v>-5.9</v>
       </c>
       <c r="L15">
-        <v>-2.7</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="16">
@@ -950,13 +950,13 @@
         <v>0.66</v>
       </c>
       <c r="J16">
-        <v>-6.49</v>
+        <v>-6.57</v>
       </c>
       <c r="K16">
-        <v>-8.550000000000001</v>
+        <v>-8.66</v>
       </c>
       <c r="L16">
-        <v>-4.43</v>
+        <v>-4.48</v>
       </c>
     </row>
     <row r="17">
@@ -992,13 +992,13 @@
         <v>0.68</v>
       </c>
       <c r="J17">
-        <v>-6.72</v>
+        <v>-6.84</v>
       </c>
       <c r="K17">
-        <v>-9.029999999999999</v>
+        <v>-8.98</v>
       </c>
       <c r="L17">
-        <v>-5.08</v>
+        <v>-5.16</v>
       </c>
     </row>
     <row r="18">
@@ -1034,13 +1034,13 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="J18">
-        <v>-6.83</v>
+        <v>-6.87</v>
       </c>
       <c r="K18">
-        <v>-8.550000000000001</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="L18">
-        <v>-5.11</v>
+        <v>-5.35</v>
       </c>
     </row>
     <row r="19">
@@ -1076,13 +1076,13 @@
         <v>0.72</v>
       </c>
       <c r="J19">
-        <v>-6.34</v>
+        <v>-6.46</v>
       </c>
       <c r="K19">
-        <v>-7.16</v>
+        <v>-7.34</v>
       </c>
       <c r="L19">
-        <v>-5.37</v>
+        <v>-5.01</v>
       </c>
     </row>
     <row r="20">
@@ -1118,13 +1118,13 @@
         <v>0.71</v>
       </c>
       <c r="J20">
-        <v>-9.43</v>
+        <v>-9.640000000000001</v>
       </c>
       <c r="K20">
-        <v>-9.85</v>
+        <v>-10.33</v>
       </c>
       <c r="L20">
-        <v>-9.01</v>
+        <v>-8.960000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -1160,13 +1160,13 @@
         <v>0.68</v>
       </c>
       <c r="J21">
-        <v>-7.57</v>
+        <v>-7.43</v>
       </c>
       <c r="K21">
-        <v>-8.449999999999999</v>
+        <v>-8.42</v>
       </c>
       <c r="L21">
-        <v>-6.14</v>
+        <v>-5.94</v>
       </c>
     </row>
     <row r="22">
@@ -1202,13 +1202,13 @@
         <v>0.74</v>
       </c>
       <c r="J22">
-        <v>-7.03</v>
+        <v>-6.91</v>
       </c>
       <c r="K22">
-        <v>-9.029999999999999</v>
+        <v>-8.99</v>
       </c>
       <c r="L22">
-        <v>-5.03</v>
+        <v>-4.83</v>
       </c>
     </row>
     <row r="23">
@@ -1244,13 +1244,13 @@
         <v>0.66</v>
       </c>
       <c r="J23">
-        <v>-6.83</v>
+        <v>-6.94</v>
       </c>
       <c r="K23">
-        <v>-9.25</v>
+        <v>-9.33</v>
       </c>
       <c r="L23">
-        <v>-4.08</v>
+        <v>-3.91</v>
       </c>
     </row>
     <row r="24">
@@ -1286,13 +1286,13 @@
         <v>0.62</v>
       </c>
       <c r="J24">
-        <v>-5.42</v>
+        <v>-5.58</v>
       </c>
       <c r="K24">
-        <v>-5.42</v>
+        <v>-5.58</v>
       </c>
       <c r="L24">
-        <v>-5.42</v>
+        <v>-5.58</v>
       </c>
     </row>
     <row r="25">
@@ -1328,13 +1328,13 @@
         <v>0.65</v>
       </c>
       <c r="J25">
-        <v>-7.56</v>
+        <v>-7.42</v>
       </c>
       <c r="K25">
-        <v>-8.630000000000001</v>
+        <v>-8.41</v>
       </c>
       <c r="L25">
-        <v>-6.26</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="26">
@@ -1370,13 +1370,13 @@
         <v>0.82</v>
       </c>
       <c r="J26">
-        <v>-0.5</v>
+        <v>-0.54</v>
       </c>
       <c r="K26">
-        <v>-0.95</v>
+        <v>-0.97</v>
       </c>
       <c r="L26">
-        <v>-0.06</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="27">
@@ -1412,13 +1412,13 @@
         <v>0.84</v>
       </c>
       <c r="J27">
-        <v>-2.63</v>
+        <v>-2.59</v>
       </c>
       <c r="K27">
         <v>-3.5</v>
       </c>
       <c r="L27">
-        <v>-2.15</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="28">
@@ -1454,13 +1454,13 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="J28">
-        <v>-3.12</v>
+        <v>-3.28</v>
       </c>
       <c r="K28">
-        <v>-3.97</v>
+        <v>-4.12</v>
       </c>
       <c r="L28">
-        <v>-2.28</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="29">
@@ -1496,13 +1496,13 @@
         <v>0.73</v>
       </c>
       <c r="J29">
-        <v>-1.8</v>
+        <v>-1.83</v>
       </c>
       <c r="K29">
-        <v>-2.64</v>
+        <v>-2.62</v>
       </c>
       <c r="L29">
-        <v>-0.52</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="30">
@@ -1538,13 +1538,13 @@
         <v>0.67</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>-0.99</v>
       </c>
       <c r="K30">
-        <v>-1.49</v>
+        <v>-1.53</v>
       </c>
       <c r="L30">
-        <v>-0.51</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="31">
@@ -1580,13 +1580,13 @@
         <v>0.59</v>
       </c>
       <c r="J31">
-        <v>-3.29</v>
+        <v>-3.38</v>
       </c>
       <c r="K31">
-        <v>-4.06</v>
+        <v>-4.28</v>
       </c>
       <c r="L31">
-        <v>-2.05</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="32">
@@ -1622,13 +1622,13 @@
         <v>0.6</v>
       </c>
       <c r="J32">
-        <v>-3.11</v>
+        <v>-3.1</v>
       </c>
       <c r="K32">
-        <v>-3.78</v>
+        <v>-3.77</v>
       </c>
       <c r="L32">
-        <v>-2.45</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="33">
@@ -1664,13 +1664,13 @@
         <v>0.62</v>
       </c>
       <c r="J33">
-        <v>-1.93</v>
+        <v>-1.79</v>
       </c>
       <c r="K33">
-        <v>-3.26</v>
+        <v>-3.11</v>
       </c>
       <c r="L33">
-        <v>-0.19</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="34">
@@ -1706,13 +1706,13 @@
         <v>0.59</v>
       </c>
       <c r="J34">
-        <v>-2.57</v>
+        <v>-2.5</v>
       </c>
       <c r="K34">
-        <v>-3.55</v>
+        <v>-3.42</v>
       </c>
       <c r="L34">
-        <v>-1.59</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="35">
@@ -1748,13 +1748,13 @@
         <v>0.75</v>
       </c>
       <c r="J35">
-        <v>-1.92</v>
+        <v>-1.93</v>
       </c>
       <c r="K35">
-        <v>-3.47</v>
+        <v>-3.57</v>
       </c>
       <c r="L35">
-        <v>-1.12</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="36">
@@ -1790,13 +1790,13 @@
         <v>0.62</v>
       </c>
       <c r="J36">
-        <v>-2.47</v>
+        <v>-2.43</v>
       </c>
       <c r="K36">
-        <v>-2.47</v>
+        <v>-2.43</v>
       </c>
       <c r="L36">
-        <v>-2.47</v>
+        <v>-2.43</v>
       </c>
     </row>
     <row r="37">
@@ -1832,13 +1832,13 @@
         <v>0.64</v>
       </c>
       <c r="J37">
-        <v>-2.15</v>
+        <v>-2.12</v>
       </c>
       <c r="K37">
-        <v>-2.86</v>
+        <v>-2.81</v>
       </c>
       <c r="L37">
-        <v>-1.66</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="38">
@@ -1877,10 +1877,10 @@
         <v>0.4</v>
       </c>
       <c r="K38">
-        <v>-0.74</v>
+        <v>-0.73</v>
       </c>
       <c r="L38">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="39">
@@ -1916,10 +1916,10 @@
         <v>0.91</v>
       </c>
       <c r="J39">
-        <v>-0.53</v>
+        <v>-0.55</v>
       </c>
       <c r="K39">
-        <v>-0.9399999999999999</v>
+        <v>-0.89</v>
       </c>
       <c r="L39">
         <v>-0.09</v>
@@ -1958,13 +1958,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="J40">
-        <v>-0.73</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="K40">
-        <v>-2.14</v>
+        <v>-2.02</v>
       </c>
       <c r="L40">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="41">
@@ -2000,13 +2000,13 @@
         <v>0.63</v>
       </c>
       <c r="J41">
-        <v>-0.52</v>
+        <v>-0.61</v>
       </c>
       <c r="K41">
-        <v>-2.62</v>
+        <v>-2.78</v>
       </c>
       <c r="L41">
-        <v>0.59</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="42">
@@ -2042,13 +2042,13 @@
         <v>0.74</v>
       </c>
       <c r="J42">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="K42">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="L42">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="43">
@@ -2084,13 +2084,13 @@
         <v>0.68</v>
       </c>
       <c r="J43">
-        <v>-0</v>
+        <v>0.01</v>
       </c>
       <c r="K43">
-        <v>-0.76</v>
+        <v>-0.78</v>
       </c>
       <c r="L43">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="44">
@@ -2126,13 +2126,13 @@
         <v>0.79</v>
       </c>
       <c r="J44">
-        <v>-0.11</v>
+        <v>-0.01</v>
       </c>
       <c r="K44">
-        <v>-0.59</v>
+        <v>-0.48</v>
       </c>
       <c r="L44">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="45">
@@ -2168,13 +2168,13 @@
         <v>0.53</v>
       </c>
       <c r="J45">
-        <v>-1.04</v>
+        <v>-1</v>
       </c>
       <c r="K45">
-        <v>-1.96</v>
+        <v>-1.85</v>
       </c>
       <c r="L45">
-        <v>-0.17</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="46">
@@ -2210,13 +2210,13 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="J46">
-        <v>-0.4</v>
+        <v>-0.37</v>
       </c>
       <c r="K46">
         <v>-0.96</v>
       </c>
       <c r="L46">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="47">
@@ -2255,10 +2255,10 @@
         <v>-0.18</v>
       </c>
       <c r="K47">
-        <v>-1.11</v>
+        <v>-1.15</v>
       </c>
       <c r="L47">
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="48">
@@ -2294,13 +2294,13 @@
         <v>0.43</v>
       </c>
       <c r="J48">
-        <v>-0.76</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="K48">
-        <v>-0.76</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="L48">
-        <v>-0.76</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -2339,7 +2339,7 @@
         <v>-0</v>
       </c>
       <c r="K49">
-        <v>-0.6899999999999999</v>
+        <v>-0.65</v>
       </c>
       <c r="L49">
         <v>0.95</v>
@@ -2378,13 +2378,13 @@
         <v>0.48</v>
       </c>
       <c r="J50">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="K50">
-        <v>-0.73</v>
+        <v>-0.77</v>
       </c>
       <c r="L50">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="51">
@@ -2420,13 +2420,13 @@
         <v>0.73</v>
       </c>
       <c r="J51">
-        <v>-0.89</v>
+        <v>-0.9</v>
       </c>
       <c r="K51">
-        <v>-1.92</v>
+        <v>-1.98</v>
       </c>
       <c r="L51">
-        <v>-0.33</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="52">
@@ -2462,13 +2462,13 @@
         <v>0.64</v>
       </c>
       <c r="J52">
-        <v>-1.47</v>
+        <v>-1.33</v>
       </c>
       <c r="K52">
-        <v>-2.47</v>
+        <v>-2.28</v>
       </c>
       <c r="L52">
-        <v>-0.47</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="53">
@@ -2504,13 +2504,13 @@
         <v>0.55</v>
       </c>
       <c r="J53">
-        <v>-1.43</v>
+        <v>-1.44</v>
       </c>
       <c r="K53">
-        <v>-1.88</v>
+        <v>-1.86</v>
       </c>
       <c r="L53">
-        <v>-1.1</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="54">
@@ -2546,13 +2546,13 @@
         <v>0.67</v>
       </c>
       <c r="J54">
-        <v>-0.13</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="K54">
-        <v>-1.24</v>
+        <v>-1.21</v>
       </c>
       <c r="L54">
-        <v>0.97</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="55">
@@ -2588,13 +2588,13 @@
         <v>0.78</v>
       </c>
       <c r="J55">
-        <v>-0.99</v>
+        <v>-1</v>
       </c>
       <c r="K55">
-        <v>-1.88</v>
+        <v>-1.86</v>
       </c>
       <c r="L55">
-        <v>-0.31</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="56">
@@ -2630,13 +2630,13 @@
         <v>0.44</v>
       </c>
       <c r="J56">
-        <v>-1.35</v>
+        <v>-1.44</v>
       </c>
       <c r="K56">
-        <v>-1.74</v>
+        <v>-1.87</v>
       </c>
       <c r="L56">
-        <v>-0.96</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="57">
@@ -2672,13 +2672,13 @@
         <v>0.62</v>
       </c>
       <c r="J57">
-        <v>-1.45</v>
+        <v>-1.41</v>
       </c>
       <c r="K57">
-        <v>-2.48</v>
+        <v>-2.5</v>
       </c>
       <c r="L57">
-        <v>-0.75</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="58">
@@ -2714,13 +2714,13 @@
         <v>0.7</v>
       </c>
       <c r="J58">
-        <v>-0.19</v>
+        <v>-0.22</v>
       </c>
       <c r="K58">
-        <v>-0.35</v>
+        <v>-0.37</v>
       </c>
       <c r="L58">
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="59">
@@ -2756,13 +2756,13 @@
         <v>0.8</v>
       </c>
       <c r="J59">
-        <v>-1.01</v>
+        <v>-0.97</v>
       </c>
       <c r="K59">
-        <v>-1.54</v>
+        <v>-1.46</v>
       </c>
       <c r="L59">
-        <v>-0.12</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="60">
@@ -2798,13 +2798,13 @@
         <v>0.35</v>
       </c>
       <c r="J60">
-        <v>-1.74</v>
+        <v>-1.71</v>
       </c>
       <c r="K60">
-        <v>-1.74</v>
+        <v>-1.71</v>
       </c>
       <c r="L60">
-        <v>-1.74</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="61">
@@ -2840,13 +2840,13 @@
         <v>0.86</v>
       </c>
       <c r="J61">
-        <v>-1.1</v>
+        <v>-1.07</v>
       </c>
       <c r="K61">
-        <v>-1.7</v>
+        <v>-1.63</v>
       </c>
       <c r="L61">
-        <v>-0.61</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
